--- a/data/trans_dic/IP16A04-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP16A04-Edad-trans_dic.xlsx
@@ -732,7 +732,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -742,17 +742,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>3,97%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>2,68%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1,41%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -767,22 +767,22 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>1,35%</t>
+          <t>2,31%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>2,19%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>1,2%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>1,38%</t>
+          <t>1,23%</t>
         </is>
       </c>
     </row>
@@ -795,54 +795,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,22; 10,69</t>
+          <t>0; 2,95</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,4</t>
+          <t>0; 2,06</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,19</t>
+          <t>0; 2,82</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,9</t>
+          <t>0; 3,82</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,31</t>
+          <t>0; 2,49</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,77</t>
+          <t>0,0; 7,92</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,68; 5,94</t>
+          <t>0; 1,68</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,69</t>
+          <t>0; 1,14</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,17</t>
+          <t>0,0; 4,3</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -852,47 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>3,97%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>2,68%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>1,41%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="G8" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>2,31%</t>
+          <t>1,35%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,19%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,2%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>1,23%</t>
+          <t>1,38%</t>
         </is>
       </c>
     </row>
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,95</t>
+          <t>1,22; 10,69</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,06</t>
+          <t>0,0; 9,4</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,82</t>
+          <t>0,0; 7,19</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 3,82</t>
+          <t>0; 2,9</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,49</t>
+          <t>0; 2,31</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,92</t>
+          <t>0,0; 8,77</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,68</t>
+          <t>0,68; 5,94</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,14</t>
+          <t>0,0; 3,69</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,3</t>
+          <t>0,0; 5,17</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP16A04-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP16A04-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -637,42 +637,42 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,81%</t>
+          <t>1,24%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,29%</t>
+          <t>2,11%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3,0%</t>
+          <t>4,95%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,84%</t>
+          <t>1,28%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>3,87%</t>
+          <t>6,5%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>1,52%</t>
+          <t>2,45%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,82%</t>
+          <t>1,26%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>2,6%</t>
+          <t>4,32%</t>
         </is>
       </c>
     </row>
@@ -685,54 +685,54 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,74</t>
+          <t>0; 4,25</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,09</t>
+          <t>0,0; 6,56</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,16</t>
+          <t>0,0; 12,45</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,51</t>
+          <t>0,0; 15,09</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,28</t>
+          <t>0,0; 7,32</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,03; 10,03</t>
+          <t>1,76; 17,36</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,84</t>
+          <t>0,0; 8,45</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,91</t>
+          <t>0,0; 3,88</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,7; 6,02</t>
+          <t>1,16; 9,93</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -767,7 +767,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>2,31%</t>
+          <t>1,18%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -782,7 +782,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>1,23%</t>
+          <t>0,61%</t>
         </is>
       </c>
     </row>
@@ -795,54 +795,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,95</t>
+          <t>0; 2,49</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,06</t>
+          <t>0; 1,83</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,82</t>
+          <t>0; 2,7</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 3,82</t>
+          <t>0; 2,86</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,49</t>
+          <t>0; 2,04</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,92</t>
+          <t>0,0; 6,24</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,68</t>
+          <t>0; 1,34</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,14</t>
+          <t>0; 0,97</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,3</t>
+          <t>0,0; 3,08</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -852,47 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,97%</t>
+          <t>3,41%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,68%</t>
+          <t>1,92%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>1,41%</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>1,35%</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>2,19%</t>
+          <t>1,75%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1,2%</t>
+          <t>0,89%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>1,38%</t>
+          <t>0,71%</t>
         </is>
       </c>
     </row>
@@ -905,54 +905,54 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,22; 10,69</t>
+          <t>0,0; 13,87</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,4</t>
+          <t>0,0; 10,25</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,19</t>
+          <t>0; 3,14</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,9</t>
+          <t>0; 5,61</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,31</t>
+          <t>0; 3,54</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,77</t>
+          <t>0,0; 7,27</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,68; 5,94</t>
+          <t>0,0; 8,6</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,69</t>
+          <t>0,0; 3,66</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,17</t>
+          <t>0,0; 3,63</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -962,47 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,52%</t>
+          <t>3,48%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,98%</t>
+          <t>1,86%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,92%</t>
+          <t>2,65%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,15%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,34%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>2,48%</t>
+          <t>2,13%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>1,34%</t>
+          <t>1,96%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,66%</t>
+          <t>0,9%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>1,74%</t>
+          <t>2,35%</t>
         </is>
       </c>
     </row>
@@ -1015,54 +1015,172 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,47; 4,59</t>
+          <t>0,0; 11,44</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,32; 2,97</t>
+          <t>0,0; 8,51</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,24</t>
+          <t>0,0; 13,71</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,15</t>
+          <t>0; 4,16</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
+          <t>0; 3,68</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 10,33</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 6,95</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 4,99</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 7,81</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>1,52%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0,98%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0,92%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>1,15%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0,34%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>2,48%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>1,34%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0,66%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>1,74%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0,47; 4,04</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0,31; 2,6</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 3,13</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 4,05</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
           <t>0,0; 1,7</t>
         </is>
       </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>0,9; 5,42</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>0,51; 2,69</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>0,16; 1,65</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>0,79; 3,13</t>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0,92; 4,87</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0,51; 2,99</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0,17; 1,67</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0,81; 3,19</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>

--- a/data/trans_dic/IP16A04-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP16A04-Edad-trans_dic.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -690,42 +690,42 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,56</t>
+          <t>0,0; 6,27</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,45</t>
+          <t>0,0; 12,17</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 15,09</t>
+          <t>0,0; 15,1</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,32</t>
+          <t>0,0; 7,37</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,76; 17,36</t>
+          <t>1,7; 16,03</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,45</t>
+          <t>0,0; 8,28</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,88</t>
+          <t>0,0; 4,38</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,16; 9,93</t>
+          <t>1,05; 10,7</t>
         </is>
       </c>
     </row>
@@ -820,7 +820,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,24</t>
+          <t>0,0; 5,28</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -835,7 +835,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,08</t>
+          <t>0,0; 2,97</t>
         </is>
       </c>
     </row>
@@ -905,12 +905,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,87</t>
+          <t>0,0; 16,66</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,25</t>
+          <t>0,0; 10,05</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -930,22 +930,22 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,27</t>
+          <t>0,0; 7,0</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,6</t>
+          <t>0,0; 10,0</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,66</t>
+          <t>0,0; 4,5</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,63</t>
+          <t>0,0; 3,37</t>
         </is>
       </c>
     </row>
@@ -1015,17 +1015,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,44</t>
+          <t>0,0; 10,63</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,51</t>
+          <t>0,0; 9,18</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,71</t>
+          <t>0,0; 11,07</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1040,22 +1040,22 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,33</t>
+          <t>0,0; 11,75</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,95</t>
+          <t>0,0; 6,16</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,99</t>
+          <t>0,0; 4,61</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,81</t>
+          <t>0,0; 8,09</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,47; 4,04</t>
+          <t>0,47; 3,96</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,31; 2,6</t>
+          <t>0,32; 2,63</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,13</t>
+          <t>0,0; 3,43</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,05</t>
+          <t>0,0; 4,08</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,7</t>
+          <t>0,0; 1,67</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,92; 4,87</t>
+          <t>0,85; 5,05</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,51; 2,99</t>
+          <t>0,53; 3,01</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,17; 1,67</t>
+          <t>0,17; 1,64</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,81; 3,19</t>
+          <t>0,73; 3,29</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP16A04-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP16A04-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -632,32 +632,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,95%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
+          <t>1,28%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>6,5%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>1,24%</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>2,11%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>4,95%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>1,28%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>6,5%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>0,0; 16,82</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 7,17</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>1,7; 16,03</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>0; 4,25</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 6,27</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 12,17</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 15,1</t>
-        </is>
-      </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,37</t>
+          <t>0,0; 6,29</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,7; 16,03</t>
+          <t>0,0; 10,43</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,28</t>
+          <t>0,0; 8,3</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,38</t>
+          <t>0,0; 4,41</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,05; 10,7</t>
+          <t>1,1; 10,83</t>
         </is>
       </c>
     </row>
@@ -752,7 +752,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,18%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -767,7 +767,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>1,18%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -795,34 +795,34 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>0; 2,86</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0; 2,04</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 6,04</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>0; 2,49</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
+      <c r="G7" s="2" t="inlineStr">
         <is>
           <t>0; 1,83</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
+      <c r="H7" s="2" t="inlineStr">
         <is>
           <t>0; 2,7</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>0; 2,86</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>0; 2,04</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 5,28</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
           <t>0; 1,34</t>
@@ -835,7 +835,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,97</t>
+          <t>0,0; 3,09</t>
         </is>
       </c>
     </row>
@@ -852,32 +852,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>1,41%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>3,41%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="G8" s="2" t="inlineStr">
         <is>
           <t>1,92%</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,41%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,66</t>
+          <t>0; 5,61</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,05</t>
+          <t>0; 3,54</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
+          <t>0,0; 8,35</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 13,9</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 11,55</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>0; 3,14</t>
         </is>
       </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>0; 5,61</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>0; 3,54</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 7,0</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,0</t>
+          <t>0,0; 8,57</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,5</t>
+          <t>0,0; 4,88</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,37</t>
+          <t>0,0; 3,56</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>2,13%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>3,48%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="G10" s="2" t="inlineStr">
         <is>
           <t>1,86%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="H10" s="2" t="inlineStr">
         <is>
           <t>2,65%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>2,13%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,63</t>
+          <t>0; 4,16</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,18</t>
+          <t>0; 3,68</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,07</t>
+          <t>0,0; 10,77</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 4,16</t>
+          <t>0,0; 11,83</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 3,68</t>
+          <t>0,0; 8,19</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,75</t>
+          <t>0,0; 13,49</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,16</t>
+          <t>0,0; 6,85</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,61</t>
+          <t>0,0; 5,05</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,09</t>
+          <t>0,0; 8,08</t>
         </is>
       </c>
     </row>
@@ -1072,32 +1072,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>1,15%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0,34%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>2,48%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>1,52%</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="G12" s="2" t="inlineStr">
         <is>
           <t>0,98%</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="H12" s="2" t="inlineStr">
         <is>
           <t>0,92%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>1,15%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>0,34%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>2,48%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1125,47 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,47; 3,96</t>
+          <t>0,0; 4,15</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,32; 2,63</t>
+          <t>0,0; 1,7</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,43</t>
+          <t>0,9; 5,42</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,08</t>
+          <t>0,47; 4,59</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,67</t>
+          <t>0,32; 2,97</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,85; 5,05</t>
+          <t>0,0; 3,24</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,53; 3,01</t>
+          <t>0,51; 2,69</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,17; 1,64</t>
+          <t>0,16; 1,65</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,73; 3,29</t>
+          <t>0,79; 3,13</t>
         </is>
       </c>
     </row>
